--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>체크리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,14 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>scss 작성후 자동으로 css로 변환 되는가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scss 작성후 자동으로 css로 변환 되고 웹브라우저가 자동 리로드 되는가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,6 +47,30 @@
   </si>
   <si>
     <t>여러 css 파일 변경시 스타일이 적용되고 웹브라우저 자동 리로드 되는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css 압축 task 가 올바르게 실행되는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jss 압축 task 가 올바르게 실행되는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scss 작성후 저장시 자동으로 css로 변환 되는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scss 작성후 저장시 자동으로 css로 변환 되고 웹브라우저가 자동 리로드 되는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 css 파일을 대상으로 압축한 하나의 css 파일이 생성되는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 스프라이트 task 가 올바르게 실행되는가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,41 +240,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,7 +582,7 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="6"/>
+    <col min="15" max="15" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
@@ -576,418 +592,431 @@
     </row>
     <row r="3" spans="2:15" ht="17.25" thickBot="1"/>
     <row r="4" spans="2:15">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="5" t="s">
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="7" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="8" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="8" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="8" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="7"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="7"/>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="7"/>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="3"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="7"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="2:15">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="7"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="3"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="7"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="3"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="7"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="3"/>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="7"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="3"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="7"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="3"/>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="7"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="3"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="7"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="3"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="7"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="3"/>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="7"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="3"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="7"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="3"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="7"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="3"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="7"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B20:N20"/>
-    <mergeCell ref="B21:N21"/>
-    <mergeCell ref="B22:N22"/>
-    <mergeCell ref="B23:N23"/>
-    <mergeCell ref="B24:N24"/>
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="B8:N8"/>
+    <mergeCell ref="B10:N10"/>
+    <mergeCell ref="B11:N11"/>
+    <mergeCell ref="B12:N12"/>
     <mergeCell ref="B25:N25"/>
     <mergeCell ref="B26:N26"/>
     <mergeCell ref="B27:N27"/>
@@ -997,16 +1026,11 @@
     <mergeCell ref="B17:N17"/>
     <mergeCell ref="B18:N18"/>
     <mergeCell ref="B19:N19"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="B8:N8"/>
-    <mergeCell ref="B10:N10"/>
-    <mergeCell ref="B11:N11"/>
-    <mergeCell ref="B12:N12"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B5:N5"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B20:N20"/>
+    <mergeCell ref="B21:N21"/>
+    <mergeCell ref="B22:N22"/>
+    <mergeCell ref="B23:N23"/>
+    <mergeCell ref="B24:N24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
